--- a/score.xlsx
+++ b/score.xlsx
@@ -19,320 +19,320 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
-    <t>班级</t>
+    <t>钟璐瑶</t>
+  </si>
+  <si>
+    <t>徐菀岐</t>
+  </si>
+  <si>
+    <t>武鑫宜</t>
+  </si>
+  <si>
+    <t>吴梓阳</t>
+  </si>
+  <si>
+    <t>范家昕</t>
+  </si>
+  <si>
+    <t>张志飞</t>
+  </si>
+  <si>
+    <t>徐雯洁</t>
+  </si>
+  <si>
+    <t>丁浩然</t>
+  </si>
+  <si>
+    <t>陈威屹</t>
+  </si>
+  <si>
+    <t>王伊诺</t>
+  </si>
+  <si>
+    <t>陈梓妍</t>
+  </si>
+  <si>
+    <t>崔如吉</t>
+  </si>
+  <si>
+    <t>薛雨瑶</t>
+  </si>
+  <si>
+    <t>陈昱舟</t>
+  </si>
+  <si>
+    <t>陈涵</t>
+  </si>
+  <si>
+    <t>周悦</t>
+  </si>
+  <si>
+    <t>邱欣唯</t>
+  </si>
+  <si>
+    <t>李缘</t>
+  </si>
+  <si>
+    <t>姚雨欣</t>
+  </si>
+  <si>
+    <t>虞思睿</t>
+  </si>
+  <si>
+    <t>林树胜</t>
+  </si>
+  <si>
+    <t>孙家康</t>
+  </si>
+  <si>
+    <t>施雨沁</t>
+  </si>
+  <si>
+    <t>顾溢芮</t>
+  </si>
+  <si>
+    <t>杨瑜青</t>
+  </si>
+  <si>
+    <t>金依青</t>
+  </si>
+  <si>
+    <t>倪逸</t>
+  </si>
+  <si>
+    <t>韩舒璇</t>
+  </si>
+  <si>
+    <t>徐亿骐</t>
+  </si>
+  <si>
+    <t>蒋梅</t>
+  </si>
+  <si>
+    <t>马孝荣</t>
+  </si>
+  <si>
+    <t>李婕</t>
+  </si>
+  <si>
+    <t>黄艺恬</t>
+  </si>
+  <si>
+    <t>方嘉欢</t>
+  </si>
+  <si>
+    <t>应言浩</t>
+  </si>
+  <si>
+    <t>张洲逸</t>
+  </si>
+  <si>
+    <t>鲍紫樱</t>
+  </si>
+  <si>
+    <t>武怡涵</t>
+  </si>
+  <si>
+    <t>邵婧</t>
+  </si>
+  <si>
+    <t>方旌亦</t>
+  </si>
+  <si>
+    <t>单雨恬</t>
+  </si>
+  <si>
+    <t>戴依娜</t>
+  </si>
+  <si>
+    <t>徐才卜</t>
+  </si>
+  <si>
+    <t>方舟</t>
+  </si>
+  <si>
+    <t>钟思源</t>
+  </si>
+  <si>
+    <t>曾玉滢</t>
+  </si>
+  <si>
+    <t>李孙强</t>
+  </si>
+  <si>
+    <t>殷利民</t>
+  </si>
+  <si>
+    <t>路婧雯</t>
+  </si>
+  <si>
+    <t>张馨玥</t>
+  </si>
+  <si>
+    <t>张翠</t>
+  </si>
+  <si>
+    <t>詹津津</t>
+  </si>
+  <si>
+    <t>吴沈佳</t>
+  </si>
+  <si>
+    <t>王怡君</t>
+  </si>
+  <si>
+    <t>金谷菁</t>
+  </si>
+  <si>
+    <t>郭雅欣</t>
+  </si>
+  <si>
+    <t>过华英</t>
+  </si>
+  <si>
+    <t>李娜</t>
+  </si>
+  <si>
+    <t>杨泓镔</t>
+  </si>
+  <si>
+    <t>朱李灵</t>
+  </si>
+  <si>
+    <t>赵丹云</t>
+  </si>
+  <si>
+    <t>张晗帆</t>
+  </si>
+  <si>
+    <t>郑梦琪</t>
+  </si>
+  <si>
+    <t>柳骅恬</t>
+  </si>
+  <si>
+    <t>徐帆</t>
+  </si>
+  <si>
+    <t>陈诗瑶</t>
+  </si>
+  <si>
+    <t>毛成龙</t>
+  </si>
+  <si>
+    <t>洪紫琪</t>
+  </si>
+  <si>
+    <t>程辰</t>
+  </si>
+  <si>
+    <t>杨逸珊</t>
+  </si>
+  <si>
+    <t>彭文萱</t>
+  </si>
+  <si>
+    <t>蒋梦迪</t>
+  </si>
+  <si>
+    <t>翁子祁</t>
+  </si>
+  <si>
+    <t>胡诗喻</t>
+  </si>
+  <si>
+    <t>郑宇宏</t>
+  </si>
+  <si>
+    <t>胡楚馨</t>
+  </si>
+  <si>
+    <t>史心瑜</t>
+  </si>
+  <si>
+    <t>王晶</t>
+  </si>
+  <si>
+    <t>叶童</t>
+  </si>
+  <si>
+    <t>邱琪瑶</t>
+  </si>
+  <si>
+    <t>徐志禹</t>
+  </si>
+  <si>
+    <t>陆洋</t>
+  </si>
+  <si>
+    <t>叶洋天</t>
+  </si>
+  <si>
+    <t>吴少青</t>
+  </si>
+  <si>
+    <t>朱逸丰</t>
+  </si>
+  <si>
+    <t>蒲静</t>
+  </si>
+  <si>
+    <t>李昕瑞</t>
+  </si>
+  <si>
+    <t>李子童</t>
+  </si>
+  <si>
+    <t>贺瑀非</t>
+  </si>
+  <si>
+    <t>周浩男</t>
+  </si>
+  <si>
+    <t>王哲</t>
+  </si>
+  <si>
+    <t>李碧云</t>
+  </si>
+  <si>
+    <t>谢恩泽</t>
+  </si>
+  <si>
+    <t>柴通达</t>
+  </si>
+  <si>
+    <t>吴燚钊</t>
+  </si>
+  <si>
+    <t>陈桥宇</t>
+  </si>
+  <si>
+    <t>陈慧如</t>
+  </si>
+  <si>
+    <t>马梦娇</t>
+  </si>
+  <si>
+    <t>徐吕洁</t>
+  </si>
+  <si>
+    <t>张琬</t>
+  </si>
+  <si>
+    <t>Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>语文</t>
+    <t>Chinese</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学</t>
+    <t>Math</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟璐瑶</t>
-  </si>
-  <si>
-    <t>徐菀岐</t>
-  </si>
-  <si>
-    <t>武鑫宜</t>
-  </si>
-  <si>
-    <t>吴梓阳</t>
-  </si>
-  <si>
-    <t>范家昕</t>
-  </si>
-  <si>
-    <t>张志飞</t>
-  </si>
-  <si>
-    <t>徐雯洁</t>
-  </si>
-  <si>
-    <t>丁浩然</t>
-  </si>
-  <si>
-    <t>陈威屹</t>
-  </si>
-  <si>
-    <t>王伊诺</t>
-  </si>
-  <si>
-    <t>陈梓妍</t>
-  </si>
-  <si>
-    <t>崔如吉</t>
-  </si>
-  <si>
-    <t>薛雨瑶</t>
-  </si>
-  <si>
-    <t>陈昱舟</t>
-  </si>
-  <si>
-    <t>陈涵</t>
-  </si>
-  <si>
-    <t>周悦</t>
-  </si>
-  <si>
-    <t>邱欣唯</t>
-  </si>
-  <si>
-    <t>李缘</t>
-  </si>
-  <si>
-    <t>姚雨欣</t>
-  </si>
-  <si>
-    <t>虞思睿</t>
-  </si>
-  <si>
-    <t>林树胜</t>
-  </si>
-  <si>
-    <t>孙家康</t>
-  </si>
-  <si>
-    <t>施雨沁</t>
-  </si>
-  <si>
-    <t>顾溢芮</t>
-  </si>
-  <si>
-    <t>杨瑜青</t>
-  </si>
-  <si>
-    <t>金依青</t>
-  </si>
-  <si>
-    <t>倪逸</t>
-  </si>
-  <si>
-    <t>韩舒璇</t>
-  </si>
-  <si>
-    <t>徐亿骐</t>
-  </si>
-  <si>
-    <t>蒋梅</t>
-  </si>
-  <si>
-    <t>马孝荣</t>
-  </si>
-  <si>
-    <t>李婕</t>
-  </si>
-  <si>
-    <t>黄艺恬</t>
-  </si>
-  <si>
-    <t>方嘉欢</t>
-  </si>
-  <si>
-    <t>应言浩</t>
-  </si>
-  <si>
-    <t>张洲逸</t>
-  </si>
-  <si>
-    <t>鲍紫樱</t>
-  </si>
-  <si>
-    <t>武怡涵</t>
-  </si>
-  <si>
-    <t>邵婧</t>
-  </si>
-  <si>
-    <t>方旌亦</t>
-  </si>
-  <si>
-    <t>单雨恬</t>
-  </si>
-  <si>
-    <t>戴依娜</t>
-  </si>
-  <si>
-    <t>徐才卜</t>
-  </si>
-  <si>
-    <t>方舟</t>
-  </si>
-  <si>
-    <t>钟思源</t>
-  </si>
-  <si>
-    <t>曾玉滢</t>
-  </si>
-  <si>
-    <t>李孙强</t>
-  </si>
-  <si>
-    <t>殷利民</t>
-  </si>
-  <si>
-    <t>路婧雯</t>
-  </si>
-  <si>
-    <t>张馨玥</t>
-  </si>
-  <si>
-    <t>张翠</t>
-  </si>
-  <si>
-    <t>詹津津</t>
-  </si>
-  <si>
-    <t>吴沈佳</t>
-  </si>
-  <si>
-    <t>王怡君</t>
-  </si>
-  <si>
-    <t>金谷菁</t>
-  </si>
-  <si>
-    <t>郭雅欣</t>
-  </si>
-  <si>
-    <t>过华英</t>
-  </si>
-  <si>
-    <t>李娜</t>
-  </si>
-  <si>
-    <t>杨泓镔</t>
-  </si>
-  <si>
-    <t>朱李灵</t>
-  </si>
-  <si>
-    <t>赵丹云</t>
-  </si>
-  <si>
-    <t>张晗帆</t>
-  </si>
-  <si>
-    <t>郑梦琪</t>
-  </si>
-  <si>
-    <t>柳骅恬</t>
-  </si>
-  <si>
-    <t>徐帆</t>
-  </si>
-  <si>
-    <t>陈诗瑶</t>
-  </si>
-  <si>
-    <t>毛成龙</t>
-  </si>
-  <si>
-    <t>洪紫琪</t>
-  </si>
-  <si>
-    <t>程辰</t>
-  </si>
-  <si>
-    <t>杨逸珊</t>
-  </si>
-  <si>
-    <t>彭文萱</t>
-  </si>
-  <si>
-    <t>蒋梦迪</t>
-  </si>
-  <si>
-    <t>翁子祁</t>
-  </si>
-  <si>
-    <t>胡诗喻</t>
-  </si>
-  <si>
-    <t>郑宇宏</t>
-  </si>
-  <si>
-    <t>胡楚馨</t>
-  </si>
-  <si>
-    <t>史心瑜</t>
-  </si>
-  <si>
-    <t>王晶</t>
-  </si>
-  <si>
-    <t>叶童</t>
-  </si>
-  <si>
-    <t>邱琪瑶</t>
-  </si>
-  <si>
-    <t>徐志禹</t>
-  </si>
-  <si>
-    <t>陆洋</t>
-  </si>
-  <si>
-    <t>叶洋天</t>
-  </si>
-  <si>
-    <t>吴少青</t>
-  </si>
-  <si>
-    <t>朱逸丰</t>
-  </si>
-  <si>
-    <t>蒲静</t>
-  </si>
-  <si>
-    <t>李昕瑞</t>
-  </si>
-  <si>
-    <t>李子童</t>
-  </si>
-  <si>
-    <t>贺瑀非</t>
-  </si>
-  <si>
-    <t>周浩男</t>
-  </si>
-  <si>
-    <t>王哲</t>
-  </si>
-  <si>
-    <t>李碧云</t>
-  </si>
-  <si>
-    <t>谢恩泽</t>
-  </si>
-  <si>
-    <t>柴通达</t>
-  </si>
-  <si>
-    <t>吴燚钊</t>
-  </si>
-  <si>
-    <t>陈桥宇</t>
-  </si>
-  <si>
-    <t>陈慧如</t>
-  </si>
-  <si>
-    <t>马梦娇</t>
-  </si>
-  <si>
-    <t>徐吕洁</t>
-  </si>
-  <si>
-    <t>张琬</t>
   </si>
 </sst>
 </file>
@@ -694,23 +694,23 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D101"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>134</v>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>99</v>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>129</v>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>116</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>90</v>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>94</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>123</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>88</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>114</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>87</v>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>118</v>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>127</v>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>127</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>124</v>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>129</v>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>98</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>132</v>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>106</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>91</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>115</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>91</v>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>133</v>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <v>121</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>118</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <v>111</v>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>125</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <v>86</v>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>127</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>101</v>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <v>133</v>
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>89</v>
@@ -1152,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>108</v>
@@ -1166,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>120</v>
@@ -1180,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>96</v>
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <v>94</v>
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <v>95</v>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <v>113</v>
@@ -1236,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
         <v>129</v>
@@ -1250,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1">
         <v>113</v>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <v>132</v>
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <v>86</v>
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <v>96</v>
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1">
         <v>116</v>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
         <v>121</v>
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1">
         <v>121</v>
@@ -1348,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1">
         <v>101</v>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1">
         <v>127</v>
@@ -1376,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
         <v>106</v>
@@ -1390,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1">
         <v>131</v>
@@ -1404,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1">
         <v>96</v>
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1">
         <v>103</v>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1">
         <v>111</v>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1">
         <v>98</v>
@@ -1460,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1">
         <v>86</v>
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1">
         <v>97</v>
@@ -1488,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1">
         <v>121</v>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1">
         <v>114</v>
@@ -1516,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1">
         <v>127</v>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1">
         <v>113</v>
@@ -1544,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1">
         <v>117</v>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1">
         <v>103</v>
@@ -1572,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1">
         <v>108</v>
@@ -1586,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C64" s="1">
         <v>122</v>
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1">
         <v>87</v>
@@ -1614,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C66" s="1">
         <v>100</v>
@@ -1628,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1">
         <v>100</v>
@@ -1642,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C68" s="1">
         <v>92</v>
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1">
         <v>130</v>
@@ -1670,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C70" s="1">
         <v>100</v>
@@ -1684,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1">
         <v>103</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1">
         <v>104</v>
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C73" s="1">
         <v>88</v>
@@ -1726,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C74" s="1">
         <v>100</v>
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C75" s="1">
         <v>90</v>
@@ -1754,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C76" s="1">
         <v>116</v>
@@ -1768,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C77" s="1">
         <v>108</v>
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1">
         <v>93</v>
@@ -1796,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1">
         <v>109</v>
@@ -1810,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C80" s="1">
         <v>128</v>
@@ -1824,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C81" s="1">
         <v>103</v>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C82" s="1">
         <v>89</v>
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C83" s="1">
         <v>132</v>
@@ -1866,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C84" s="1">
         <v>103</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C85" s="1">
         <v>96</v>
@@ -1894,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C86" s="1">
         <v>121</v>
@@ -1908,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C87" s="1">
         <v>98</v>
@@ -1922,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C88" s="1">
         <v>90</v>
@@ -1936,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1">
         <v>89</v>
@@ -1950,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C90" s="1">
         <v>94</v>
@@ -1964,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1">
         <v>132</v>
@@ -1978,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C92" s="1">
         <v>98</v>
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>100</v>
@@ -2006,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C94" s="1">
         <v>127</v>
@@ -2020,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C95" s="1">
         <v>103</v>
@@ -2034,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C96" s="1">
         <v>110</v>
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>99</v>
@@ -2062,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C98" s="1">
         <v>131</v>
@@ -2076,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C99" s="1">
         <v>88</v>
@@ -2090,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C100" s="1">
         <v>104</v>
@@ -2104,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C101" s="1">
         <v>89</v>
